--- a/owlcms/src/main/resources/templates/protocol/SnCJTotRanks-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/protocol/SnCJTotRanks-LETTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56709FE0-6812-4E0B-A0E5-07BFB919C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E04713D-72C6-46B9-8853-15941267F0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2805" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <definedName name="TAS">Results!#REF!</definedName>
     <definedName name="tirage">Results!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029" fullCalcOnLoad="1" iterate="1"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -371,11 +371,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="183" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="190" formatCode="0;\(0\);\-"/>
-    <numFmt numFmtId="193" formatCode="0.000;;\-"/>
+    <numFmt numFmtId="164" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
+    <numFmt numFmtId="165" formatCode="0;\(0\);\-"/>
+    <numFmt numFmtId="166" formatCode="0.000;;\-"/>
   </numFmts>
   <fonts count="33" x14ac:knownFonts="1">
     <font>
@@ -1026,139 +1026,111 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1168,17 +1140,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="190" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1194,7 +1163,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1233,25 +1202,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1331,7 +1296,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1351,9 +1316,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1363,6 +1325,42 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1372,10 +1370,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1386,47 +1384,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1438,18 +1400,18 @@
     <cellStyle name="Accent4" xfId="4" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="5" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="6" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Emphase 1" xfId="7"/>
-    <cellStyle name="Emphase 2" xfId="8"/>
-    <cellStyle name="Emphase 3" xfId="9"/>
+    <cellStyle name="Emphase 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Emphase 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Emphase 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="Lien hypertexte 2" xfId="11"/>
+    <cellStyle name="Lien hypertexte 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 3" xfId="13"/>
-    <cellStyle name="Titre 1" xfId="14"/>
-    <cellStyle name="Titre 1 1" xfId="15"/>
-    <cellStyle name="Titre 1 1 1" xfId="16"/>
-    <cellStyle name="Titre de la feuille" xfId="17"/>
+    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Titre 1" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Titre 1 1" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Titre 1 1 1" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Titre de la feuille" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
@@ -1937,11 +1899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y124"/>
+  <dimension ref="A1:X124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A7"/>
@@ -1955,316 +1917,286 @@
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
     <col min="11" max="13" width="7.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="3" customWidth="1"/>
     <col min="16" max="18" width="7.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
     <col min="22" max="23" width="10.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="1" style="5" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="X1" s="16"/>
-      <c r="Y1"/>
-    </row>
-    <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="22" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="5"/>
+      <c r="G2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="X2" s="16"/>
-      <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="22" t="s">
+      <c r="B3" s="35"/>
+      <c r="G3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="43" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="X3" s="16"/>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+    </row>
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="22" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="2"/>
-      <c r="V4" s="12"/>
-      <c r="X4" s="16"/>
-      <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="X5" s="16"/>
-      <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:25" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="141" t="s">
+      <c r="I4"/>
+      <c r="J4" s="3"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="40"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="143" t="s">
+      <c r="C6" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="145" t="s">
+      <c r="D6" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="135" t="s">
+      <c r="F6" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="137" t="s">
+      <c r="I6" s="129" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="137" t="s">
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="139" t="s">
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="140"/>
-      <c r="U6" s="131" t="s">
+      <c r="T6" s="113"/>
+      <c r="U6" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="V6" s="133" t="s">
+      <c r="V6" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="W6" s="12"/>
-    </row>
-    <row r="7" spans="1:25" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="142"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="67">
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="54">
         <v>1</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="53">
         <v>2</v>
       </c>
-      <c r="K7" s="66">
+      <c r="K7" s="53">
         <v>3</v>
       </c>
-      <c r="L7" s="68" t="s">
+      <c r="L7" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="69" t="s">
+      <c r="M7" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="N7" s="66">
+      <c r="N7" s="53">
         <v>1</v>
       </c>
-      <c r="O7" s="66">
+      <c r="O7" s="53">
         <v>2</v>
       </c>
-      <c r="P7" s="66">
+      <c r="P7" s="53">
         <v>3</v>
       </c>
-      <c r="Q7" s="68" t="s">
+      <c r="Q7" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="69" t="s">
+      <c r="R7" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="70" t="s">
+      <c r="S7" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="69" t="s">
+      <c r="T7" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="132"/>
-      <c r="V7" s="134"/>
-    </row>
-    <row r="8" spans="1:25" s="20" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="U7" s="126"/>
+      <c r="V7" s="128"/>
+    </row>
+    <row r="8" spans="1:24" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:25" s="20" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
-    </row>
-    <row r="10" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="9" spans="1:24" s="13" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="63"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="50"/>
       <c r="X10"/>
-      <c r="Y10"/>
-    </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2285,77 +2217,76 @@
       <c r="V11"/>
       <c r="W11"/>
       <c r="X11"/>
-      <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:25" s="20" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+    </row>
+    <row r="12" spans="1:24" s="13" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="76" t="s">
+      <c r="L12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="77" t="s">
+      <c r="M12" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="19" t="s">
+      <c r="O12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="76" t="s">
+      <c r="Q12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="R12" s="77" t="s">
+      <c r="R12" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="S12" s="78" t="s">
+      <c r="S12" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="T12" s="79" t="s">
+      <c r="T12" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="U12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="21" t="s">
+      <c r="V12" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2375,9 +2306,8 @@
       <c r="V13"/>
       <c r="W13"/>
       <c r="X13"/>
-      <c r="Y13"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2397,9 +2327,8 @@
       <c r="V14"/>
       <c r="W14"/>
       <c r="X14"/>
-      <c r="Y14"/>
-    </row>
-    <row r="15" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -2416,9 +2345,8 @@
       <c r="V15"/>
       <c r="W15"/>
       <c r="X15"/>
-      <c r="Y15"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -2438,694 +2366,696 @@
       <c r="V16"/>
       <c r="W16"/>
       <c r="X16"/>
-      <c r="Y16"/>
-    </row>
-    <row r="17" spans="1:25" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+    </row>
+    <row r="17" spans="1:24" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="82"/>
-    </row>
-    <row r="18" spans="1:25" s="81" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-    </row>
-    <row r="19" spans="1:25" s="94" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A19" s="85" t="s">
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:24" s="18" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+    </row>
+    <row r="19" spans="1:24" s="79" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A19" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="88" t="s">
+      <c r="F19" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="90" t="s">
+      <c r="G19" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="91"/>
-      <c r="I19" s="88" t="s">
+      <c r="H19" s="76"/>
+      <c r="I19" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="85" t="s">
+      <c r="J19" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="K19" s="92"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="85" t="s">
+      <c r="K19" s="77"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="O19" s="86"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="85" t="s">
+      <c r="O19" s="71"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="R19" s="86"/>
-      <c r="S19" s="85" t="s">
+      <c r="R19" s="71"/>
+      <c r="S19" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="T19" s="92"/>
-      <c r="U19" s="85" t="s">
+      <c r="T19" s="77"/>
+      <c r="U19" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="V19" s="93"/>
-      <c r="X19" s="87"/>
-    </row>
-    <row r="20" spans="1:25" s="99" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="95" t="s">
+      <c r="V19" s="78"/>
+      <c r="X19" s="72"/>
+    </row>
+    <row r="20" spans="1:24" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="98"/>
-      <c r="M20" s="98"/>
-    </row>
-    <row r="21" spans="1:25" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="83"/>
+      <c r="M20" s="83"/>
+    </row>
+    <row r="21" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="103" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="104" t="s">
+      <c r="E21" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="127" t="s">
+      <c r="F21" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="104" t="s">
+      <c r="G21" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="102"/>
-      <c r="I21" s="126" t="s">
+      <c r="H21" s="87"/>
+      <c r="I21" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="104" t="s">
+      <c r="J21" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="104" t="s">
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="O21" s="101"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="100" t="s">
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="R21" s="101"/>
-      <c r="S21" s="105" t="s">
+      <c r="R21" s="86"/>
+      <c r="S21" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="T21" s="101"/>
-      <c r="U21" s="106" t="s">
+      <c r="T21" s="86"/>
+      <c r="U21" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="V21" s="102"/>
-      <c r="X21" s="102"/>
-    </row>
-    <row r="22" spans="1:25" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107" t="s">
+      <c r="V21" s="87"/>
+      <c r="X21" s="87"/>
+    </row>
+    <row r="22" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="96"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="81"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:25" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="107" t="s">
+    <row r="23" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="96"/>
-    </row>
-    <row r="24" spans="1:25" s="14" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="128" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="81"/>
+    </row>
+    <row r="24" spans="1:24" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="129" t="s">
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="129"/>
-      <c r="L24" s="111"/>
-      <c r="N24" s="114"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="130" t="s">
+      <c r="K24" s="123"/>
+      <c r="L24" s="96"/>
+      <c r="N24" s="99"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="R24" s="130"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="111"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="111"/>
-      <c r="W24" s="111"/>
-      <c r="X24" s="111" t="s">
+      <c r="R24" s="124"/>
+      <c r="S24" s="100"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="96"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="23" t="s">
+      <c r="D25" s="42"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="23" t="s">
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="130"/>
-      <c r="R25" s="130"/>
-      <c r="S25" s="23" t="s">
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
+      <c r="S25" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="T25" s="117"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
       <c r="W25"/>
-      <c r="X25" s="54"/>
-      <c r="Y25"/>
-    </row>
-    <row r="26" spans="1:25" s="15" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="118"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="119"/>
-      <c r="I26" s="17"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="17"/>
-      <c r="S26" s="119"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="X26" s="119"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X25" s="42"/>
+    </row>
+    <row r="26" spans="1:24" s="9" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="104"/>
+      <c r="I26" s="10"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="10"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="X26" s="104"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="122"/>
+      <c r="B27" s="107"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="96"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="129" t="s">
+      <c r="J27" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="129"/>
+      <c r="K27" s="123"/>
       <c r="M27"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="116"/>
+      <c r="O27" s="101"/>
       <c r="T27"/>
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
       <c r="X27"/>
-      <c r="Y27"/>
-    </row>
-    <row r="28" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:24" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="53" t="s">
+      <c r="D28" s="42"/>
+      <c r="E28" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="23" t="s">
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="117"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
       <c r="T28"/>
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
       <c r="X28"/>
-      <c r="Y28"/>
-    </row>
-    <row r="29" spans="1:25" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="118"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="119"/>
-      <c r="I29" s="17"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="119"/>
-      <c r="Q29" s="17"/>
-      <c r="X29" s="119"/>
-    </row>
-    <row r="30" spans="1:25" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="103"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="104"/>
+      <c r="I29" s="10"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="10"/>
+      <c r="X29" s="104"/>
+    </row>
+    <row r="30" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="122"/>
+      <c r="B30" s="107"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="1"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="96"/>
       <c r="I30" s="1"/>
       <c r="J30"/>
-      <c r="K30" s="124"/>
+      <c r="K30" s="15"/>
       <c r="M30"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="116"/>
+      <c r="O30" s="101"/>
       <c r="T30"/>
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30"/>
       <c r="X30"/>
-      <c r="Y30"/>
-    </row>
-    <row r="31" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:24" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="53" t="s">
+      <c r="D31" s="42"/>
+      <c r="E31" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
       <c r="T31"/>
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
       <c r="X31"/>
-      <c r="Y31"/>
-    </row>
-    <row r="32" spans="1:25" s="15" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="17"/>
-      <c r="D32" s="119"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="119"/>
-      <c r="P32" s="119"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
+    </row>
+    <row r="32" spans="1:24" s="9" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B32" s="10"/>
+      <c r="D32" s="104"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F33" s="2"/>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="2"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" s="2"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F36" s="2"/>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F37" s="2"/>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F38" s="2"/>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F39" s="2"/>
+      <c r="F39" s="1"/>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="2"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F41" s="2"/>
+      <c r="F41" s="1"/>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F42" s="2"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F43" s="2"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F44" s="2"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F45" s="2"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F46" s="2"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F47" s="2"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F48" s="2"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F49" s="2"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F50" s="2"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F51" s="2"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F52" s="2"/>
+      <c r="F52" s="1"/>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F53" s="2"/>
+      <c r="F53" s="1"/>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F54" s="2"/>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F55" s="2"/>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F56" s="2"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F57" s="2"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F58" s="2"/>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F59" s="2"/>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F60" s="2"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F61" s="2"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F62" s="2"/>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F63" s="2"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F64" s="2"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" s="2"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F66" s="2"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F67" s="2"/>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F68" s="2"/>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F69" s="2"/>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F70" s="2"/>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F71" s="2"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F72" s="2"/>
+      <c r="F72" s="1"/>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F73" s="2"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F74" s="2"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F75" s="2"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F76" s="2"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F77" s="2"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F78" s="2"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F79" s="2"/>
+      <c r="F79" s="1"/>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F80" s="2"/>
+      <c r="F80" s="1"/>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F81" s="2"/>
+      <c r="F81" s="1"/>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F82" s="2"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F83" s="2"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F84" s="2"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F85" s="2"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F86" s="2"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F87" s="2"/>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F88" s="2"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F89" s="2"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F90" s="2"/>
+      <c r="F90" s="1"/>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F91" s="2"/>
+      <c r="F91" s="1"/>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F92" s="2"/>
+      <c r="F92" s="1"/>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F93" s="2"/>
+      <c r="F93" s="1"/>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F94" s="2"/>
+      <c r="F94" s="1"/>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F95" s="2"/>
+      <c r="F95" s="1"/>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F96" s="2"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F97" s="2"/>
+      <c r="F97" s="1"/>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F98" s="2"/>
+      <c r="F98" s="1"/>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F99" s="2"/>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F100" s="2"/>
+      <c r="F100" s="1"/>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F101" s="2"/>
+      <c r="F101" s="1"/>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F102" s="2"/>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F103" s="2"/>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F104" s="2"/>
+      <c r="F104" s="1"/>
     </row>
     <row r="105" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F105" s="2"/>
+      <c r="F105" s="1"/>
     </row>
     <row r="106" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F106" s="2"/>
+      <c r="F106" s="1"/>
     </row>
     <row r="107" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F107" s="2"/>
+      <c r="F107" s="1"/>
     </row>
     <row r="108" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F108" s="2"/>
+      <c r="F108" s="1"/>
     </row>
     <row r="109" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F109" s="2"/>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F110" s="2"/>
+      <c r="F110" s="1"/>
     </row>
     <row r="111" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F111" s="2"/>
+      <c r="F111" s="1"/>
     </row>
     <row r="112" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F112" s="2"/>
+      <c r="F112" s="1"/>
     </row>
     <row r="113" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F113" s="2"/>
+      <c r="F113" s="1"/>
     </row>
     <row r="114" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F114" s="2"/>
+      <c r="F114" s="1"/>
     </row>
     <row r="115" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F115" s="2"/>
+      <c r="F115" s="1"/>
     </row>
     <row r="116" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F116" s="2"/>
+      <c r="F116" s="1"/>
     </row>
     <row r="117" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F117" s="2"/>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F118" s="2"/>
+      <c r="F118" s="1"/>
     </row>
     <row r="119" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F119" s="2"/>
+      <c r="F119" s="1"/>
     </row>
     <row r="120" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F120" s="2"/>
+      <c r="F120" s="1"/>
     </row>
     <row r="121" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F121" s="2"/>
+      <c r="F121" s="1"/>
     </row>
     <row r="122" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F122" s="2"/>
+      <c r="F122" s="1"/>
     </row>
     <row r="123" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F123" s="2"/>
+      <c r="F123" s="1"/>
     </row>
     <row r="124" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F124" s="2"/>
+      <c r="F124" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="17">
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="Q24:R25"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -3133,68 +3063,54 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="Q24:R25"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:D13">
     <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D9">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="C14:D14">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:D20">
+    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14:D14">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="9" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:F18">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:D20">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:D20">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation showErrorMessage="1" sqref="H4 F28 C28 C25 S25 L25 F25 L28 C31 F31"/>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F12:F14 G24 H15:H18">
+    <dataValidation showErrorMessage="1" sqref="H4 F28 C28 C25 S25 L25 F25 L28 C31 F31" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="F12:F14 G24 H15:H18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I9 H20">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I9 H20" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="www.federation.org"/>
-    <hyperlink ref="A4" r:id="rId2" display="records@federation.org"/>
+    <hyperlink ref="A3" r:id="rId1" display="www.federation.org" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="records@federation.org" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.31496062992125984" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageMargins left="0.31496062992125984" right="0.35433070866141736" top="0.39370078740157483" bottom="0.47244094488188981" header="0.51181102362204722" footer="0.23622047244094491"/>
   <pageSetup scale="56" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/owlcms/src/main/resources/templates/protocol/SnCJTotRanks-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/protocol/SnCJTotRanks-LETTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgonzalez/Projects/Misc/owlcms4/owlcms/src/main/resources/templates/protocol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E04713D-72C6-46B9-8853-15941267F0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695930BE-1918-934B-8BAD-2296A4F021C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -191,9 +191,6 @@
     <t xml:space="preserve">${t.get("Competition.competitionOrganizer")} : </t>
   </si>
   <si>
-    <t>${t.get("Group")} :</t>
-  </si>
-  <si>
     <t>${t.get("LastName")}</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t>${session.technicalController} ${session.technicalController2}</t>
+  </si>
+  <si>
+    <t>${session != null ? t.get("Group") + " :" : ""}</t>
   </si>
 </sst>
 </file>
@@ -1325,57 +1325,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1384,11 +1333,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1905,35 +1905,33 @@
   </sheetPr>
   <dimension ref="A1:X124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="7.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="3" customWidth="1"/>
-    <col min="16" max="18" width="7.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
-    <col min="22" max="23" width="10.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="13" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="3" customWidth="1"/>
+    <col min="16" max="18" width="7.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="8.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1640625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="10.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
@@ -1991,7 +1989,7 @@
       <c r="R2" s="33"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>25</v>
       </c>
@@ -2000,7 +1998,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
@@ -2021,7 +2019,7 @@
       <c r="U3" s="39"/>
       <c r="V3" s="39"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
         <v>32</v>
       </c>
@@ -2030,7 +2028,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="15" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>22</v>
@@ -2041,67 +2039,67 @@
       <c r="P4" s="40"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="114" t="s">
+    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="127" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="129" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="114" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="118" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="120" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="129" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" s="113"/>
-      <c r="U6" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6" s="127" t="s">
-        <v>61</v>
+      <c r="T6" s="124"/>
+      <c r="U6" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" s="112" t="s">
+        <v>60</v>
       </c>
       <c r="X6"/>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="115"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="126"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
       <c r="I7" s="54">
         <v>1</v>
       </c>
@@ -2112,10 +2110,10 @@
         <v>3</v>
       </c>
       <c r="L7" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N7" s="53">
         <v>1</v>
@@ -2127,23 +2125,23 @@
         <v>3</v>
       </c>
       <c r="Q7" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R7" s="56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S7" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="T7" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="U7" s="126"/>
-      <c r="V7" s="128"/>
-    </row>
-    <row r="8" spans="1:24" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U7" s="122"/>
+      <c r="V7" s="113"/>
+    </row>
+    <row r="8" spans="1:24" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="44"/>
@@ -2156,7 +2154,7 @@
       <c r="J8" s="45"/>
       <c r="K8" s="46"/>
     </row>
-    <row r="9" spans="1:24" s="13" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="13" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -2169,9 +2167,9 @@
       <c r="J9" s="45"/>
       <c r="K9" s="46"/>
     </row>
-    <row r="10" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="48"/>
@@ -2196,9 +2194,9 @@
       <c r="V10" s="50"/>
       <c r="X10"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11"/>
       <c r="G11"/>
@@ -2218,7 +2216,7 @@
       <c r="W11"/>
       <c r="X11"/>
     </row>
-    <row r="12" spans="1:24" s="13" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" s="13" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>3</v>
       </c>
@@ -2256,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="M12" s="64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>15</v>
@@ -2271,13 +2269,13 @@
         <v>11</v>
       </c>
       <c r="R12" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S12" s="65" t="s">
         <v>8</v>
       </c>
       <c r="T12" s="66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U12" s="14" t="s">
         <v>9</v>
@@ -2286,7 +2284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2307,7 +2305,7 @@
       <c r="W13"/>
       <c r="X13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2328,7 +2326,7 @@
       <c r="W14"/>
       <c r="X14"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -2346,9 +2344,9 @@
       <c r="W15"/>
       <c r="X15"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16"/>
       <c r="G16"/>
@@ -2367,13 +2365,13 @@
       <c r="W16"/>
       <c r="X16"/>
     </row>
-    <row r="17" spans="1:24" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:24" s="18" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="18" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="68"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
@@ -2397,56 +2395,56 @@
       <c r="U18" s="69"/>
       <c r="V18" s="69"/>
     </row>
-    <row r="19" spans="1:24" s="79" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="79" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A19" s="70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="71"/>
       <c r="C19" s="72"/>
       <c r="D19" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="F19" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="75" t="s">
         <v>75</v>
-      </c>
-      <c r="F19" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>76</v>
       </c>
       <c r="H19" s="76"/>
       <c r="I19" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="70" t="s">
         <v>77</v>
-      </c>
-      <c r="J19" s="70" t="s">
-        <v>78</v>
       </c>
       <c r="K19" s="77"/>
       <c r="L19" s="71"/>
       <c r="M19" s="72"/>
       <c r="N19" s="70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O19" s="71"/>
       <c r="P19" s="78"/>
       <c r="Q19" s="70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R19" s="71"/>
       <c r="S19" s="70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T19" s="77"/>
       <c r="U19" s="70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V19" s="78"/>
       <c r="X19" s="72"/>
     </row>
-    <row r="20" spans="1:24" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="81"/>
       <c r="C20" s="81"/>
@@ -2460,54 +2458,54 @@
       <c r="K20" s="83"/>
       <c r="M20" s="83"/>
     </row>
-    <row r="21" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="86"/>
       <c r="C21" s="87"/>
       <c r="D21" s="88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="111" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="111" t="s">
-        <v>95</v>
-      </c>
       <c r="G21" s="89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H21" s="87"/>
       <c r="I21" s="110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21" s="86"/>
       <c r="L21" s="86"/>
       <c r="M21" s="87"/>
       <c r="N21" s="89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O21" s="86"/>
       <c r="P21" s="87"/>
       <c r="Q21" s="85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R21" s="86"/>
       <c r="S21" s="90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T21" s="86"/>
       <c r="U21" s="91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V21" s="87"/>
       <c r="X21" s="87"/>
     </row>
-    <row r="22" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="92" t="s">
         <v>1</v>
       </c>
@@ -2527,9 +2525,9 @@
       <c r="O22" s="81"/>
       <c r="W22"/>
     </row>
-    <row r="23" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" s="92" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="81"/>
       <c r="C23" s="81"/>
@@ -2546,27 +2544,27 @@
       <c r="N23" s="95"/>
       <c r="O23" s="81"/>
     </row>
-    <row r="24" spans="1:24" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="96"/>
       <c r="C24" s="96"/>
       <c r="D24" s="96"/>
-      <c r="E24" s="122" t="s">
-        <v>54</v>
+      <c r="E24" s="118" t="s">
+        <v>53</v>
       </c>
       <c r="G24" s="97"/>
       <c r="H24" s="98"/>
       <c r="I24" s="96"/>
-      <c r="J24" s="123" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24" s="123"/>
+      <c r="J24" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24" s="119"/>
       <c r="L24" s="96"/>
       <c r="N24" s="99"/>
       <c r="P24" s="96"/>
-      <c r="Q24" s="124" t="s">
-        <v>56</v>
-      </c>
-      <c r="R24" s="124"/>
+      <c r="Q24" s="120" t="s">
+        <v>55</v>
+      </c>
+      <c r="R24" s="120"/>
       <c r="S24" s="100"/>
       <c r="T24" s="96"/>
       <c r="U24" s="101"/>
@@ -2576,24 +2574,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="42"/>
-      <c r="E25" s="122"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
       <c r="L25" s="16" t="s">
         <v>26</v>
       </c>
@@ -2601,10 +2599,10 @@
       <c r="N25" s="42"/>
       <c r="O25" s="42"/>
       <c r="P25" s="102"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="120"/>
       <c r="S25" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T25" s="102"/>
       <c r="U25" s="42"/>
@@ -2612,7 +2610,7 @@
       <c r="W25"/>
       <c r="X25" s="42"/>
     </row>
-    <row r="26" spans="1:24" s="9" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="103"/>
       <c r="D26" s="104"/>
@@ -2632,17 +2630,17 @@
       <c r="U26" s="104"/>
       <c r="X26" s="104"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="107"/>
       <c r="D27" s="1"/>
       <c r="E27" s="108"/>
       <c r="F27" s="96"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="123"/>
+      <c r="J27" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="119"/>
       <c r="M27"/>
       <c r="N27" s="1"/>
       <c r="O27" s="101"/>
@@ -2652,17 +2650,17 @@
       <c r="W27"/>
       <c r="X27"/>
     </row>
-    <row r="28" spans="1:24" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>28</v>
@@ -2670,8 +2668,8 @@
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
       <c r="L28" s="16" t="s">
         <v>29</v>
       </c>
@@ -2685,7 +2683,7 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="103"/>
       <c r="D29" s="104"/>
@@ -2702,7 +2700,7 @@
       <c r="Q29" s="10"/>
       <c r="X29" s="104"/>
     </row>
-    <row r="30" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="107"/>
       <c r="D30" s="1"/>
@@ -2720,20 +2718,20 @@
       <c r="W30"/>
       <c r="X30"/>
     </row>
-    <row r="31" spans="1:24" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
@@ -2750,7 +2748,7 @@
       <c r="W31"/>
       <c r="X31"/>
     </row>
-    <row r="32" spans="1:24" s="9" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" s="9" customFormat="1" ht="11" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
       <c r="D32" s="104"/>
       <c r="F32" s="98"/>
@@ -2767,302 +2765,302 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F124" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="17">
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="J24:K25"/>
     <mergeCell ref="Q24:R25"/>
     <mergeCell ref="J27:K28"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:D13">
     <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
